--- a/src/main/resources/docs/database_dictionary.xlsx
+++ b/src/main/resources/docs/database_dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="1" state="visible" r:id="rId3"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="159">
   <si>
     <t xml:space="preserve">用户表 user</t>
   </si>
@@ -109,6 +109,7 @@
         <sz val="8"/>
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ENUM(‘</t>
     </r>
@@ -118,6 +119,7 @@
         <color rgb="FFC9211E"/>
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ADMIN</t>
     </r>
@@ -126,6 +128,7 @@
         <sz val="8"/>
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">’,’</t>
     </r>
@@ -135,6 +138,7 @@
         <color rgb="FFC9211E"/>
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">CONSUMER</t>
     </r>
@@ -143,6 +147,7 @@
         <sz val="8"/>
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">’,’</t>
     </r>
@@ -152,6 +157,7 @@
         <color rgb="FFC9211E"/>
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">MERCHANT</t>
     </r>
@@ -160,6 +166,7 @@
         <sz val="8"/>
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">’)</t>
     </r>
@@ -185,6 +192,7 @@
         <sz val="8"/>
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ENUM(‘</t>
     </r>
@@ -194,6 +202,7 @@
         <color rgb="FFC9211E"/>
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ACTIVE</t>
     </r>
@@ -202,6 +211,7 @@
         <sz val="8"/>
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">’,’</t>
     </r>
@@ -211,6 +221,7 @@
         <color rgb="FFC9211E"/>
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">FROZEN</t>
     </r>
@@ -219,6 +230,7 @@
         <sz val="8"/>
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">’,’</t>
     </r>
@@ -228,6 +240,7 @@
         <color rgb="FFC9211E"/>
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">DELETED</t>
     </r>
@@ -236,6 +249,7 @@
         <sz val="8"/>
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">’)</t>
     </r>
@@ -283,6 +297,7 @@
         <sz val="8"/>
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ENUM(‘</t>
     </r>
@@ -292,6 +307,7 @@
         <color rgb="FFC9211E"/>
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ONSALE</t>
     </r>
@@ -300,6 +316,7 @@
         <sz val="8"/>
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">’,’</t>
     </r>
@@ -309,6 +326,7 @@
         <color rgb="FFC9211E"/>
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">OFFSALE</t>
     </r>
@@ -317,6 +335,7 @@
         <sz val="8"/>
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">’)</t>
     </r>
@@ -473,6 +492,7 @@
         <sz val="8"/>
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ENUM(‘</t>
     </r>
@@ -482,6 +502,7 @@
         <color rgb="FFC9211E"/>
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ACTIVE</t>
     </r>
@@ -490,6 +511,7 @@
         <sz val="8"/>
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">’,’</t>
     </r>
@@ -499,6 +521,7 @@
         <color rgb="FFC9211E"/>
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">DELETED</t>
     </r>
@@ -507,6 +530,7 @@
         <sz val="8"/>
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">’)</t>
     </r>
@@ -515,6 +539,33 @@
     <t xml:space="preserve">订单表 order</t>
   </si>
   <si>
+    <t xml:space="preserve">唯一编号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fk_con_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOREIGN KEY (con_id) REFERENCES user (id) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">con_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">买家用户编号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fk_mer_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOREIGN KEY (mer_id) REFERENCES user (id) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mer_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">卖家用户编号</t>
+  </si>
+  <si>
     <t xml:space="preserve">订单状态（待付款，待发货，待收货，完成）</t>
   </si>
   <si>
@@ -523,6 +574,7 @@
         <sz val="8"/>
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ENUM(‘</t>
     </r>
@@ -532,6 +584,7 @@
         <color rgb="FFC9211E"/>
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">PLACED</t>
     </r>
@@ -540,6 +593,7 @@
         <sz val="8"/>
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">’,’</t>
     </r>
@@ -549,6 +603,7 @@
         <color rgb="FFC9211E"/>
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">CONFIRMED</t>
     </r>
@@ -557,6 +612,7 @@
         <sz val="8"/>
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">’,’</t>
     </r>
@@ -566,6 +622,7 @@
         <color rgb="FFC9211E"/>
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">SHIPPED</t>
     </r>
@@ -574,6 +631,7 @@
         <sz val="8"/>
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">’,’</t>
     </r>
@@ -583,6 +641,7 @@
         <color rgb="FFC9211E"/>
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">COMPLETE</t>
     </r>
@@ -591,6 +650,7 @@
         <sz val="8"/>
         <rFont val="WenQuanYi Micro Hei Mono"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">’)</t>
     </r>
@@ -773,6 +833,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -793,29 +854,34 @@
       <sz val="8"/>
       <name val="WenQuanYi Micro Hei Mono"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="WenQuanYi Micro Hei Mono"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
       <sz val="8"/>
       <name val="WenQuanYi Micro Hei Mono"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FFC9211E"/>
       <name val="WenQuanYi Micro Hei Mono"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="8"/>
       <name val="WenQuanYi Micro Hei Mono"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -823,11 +889,13 @@
       <sz val="8"/>
       <name val="WenQuanYi Micro Hei Mono"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -872,44 +940,48 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1098,7 +1170,7 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1126,36 +1198,36 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+    <row r="3" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1169,7 +1241,7 @@
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1183,7 +1255,7 @@
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1197,7 +1269,7 @@
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1207,14 +1279,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1225,24 +1297,24 @@
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1250,7 +1322,7 @@
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1285,13 +1357,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="9.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="24.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="16.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="24.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="15.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="25.73"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="6" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="9.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="24.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="16.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="24.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="15.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="25.73"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="7" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1307,50 +1379,50 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1366,7 +1438,7 @@
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1378,14 +1450,14 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1398,10 +1470,10 @@
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="1"/>
@@ -1412,7 +1484,7 @@
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1426,10 +1498,10 @@
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="1"/>
@@ -1440,13 +1512,13 @@
       <c r="A10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E10" s="1"/>
@@ -1456,13 +1528,13 @@
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E11" s="1"/>
@@ -1472,13 +1544,13 @@
       <c r="A12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E12" s="1"/>
@@ -1488,7 +1560,7 @@
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1504,7 +1576,7 @@
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1520,7 +1592,7 @@
       <c r="A15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1534,7 +1606,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
-      <c r="B16" s="5"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1568,13 +1640,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="10.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="25.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="16.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="12.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="21.06"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="6" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="10.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="25.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="16.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="17.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="12.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="21.06"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="7" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1590,53 +1662,53 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1645,18 +1717,18 @@
       <c r="E4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1665,18 +1737,18 @@
       <c r="E5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1685,18 +1757,18 @@
       <c r="E6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1709,7 +1781,7 @@
       <c r="A8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>87</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1725,7 +1797,7 @@
       <c r="A9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1737,17 +1809,17 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="1"/>
@@ -1755,7 +1827,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
-      <c r="B11" s="5"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1781,21 +1853,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="13.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="20.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="24.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="24.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="10.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="22.3"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="6" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="13.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="20.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="24.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="24.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="10.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="22.3"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="7" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1811,51 +1883,51 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="21.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+    <row r="3" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
+      <c r="B3" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>41</v>
+        <v>96</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1863,18 +1935,22 @@
       <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="21.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>96</v>
+      <c r="E4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>17</v>
@@ -1882,47 +1958,47 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="21.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>99</v>
+        <v>29</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>106</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>17</v>
@@ -1932,13 +2008,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>107</v>
+        <v>112</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>17</v>
@@ -1948,45 +2024,53 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>114</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>112</v>
+        <v>117</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="6"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
-      <c r="B13" s="5"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1994,11 +2078,19 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
-      <c r="B14" s="5"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2028,18 +2120,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="13.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="24.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="20.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="22.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="13.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="31.27"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="6" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="13.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="24.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="20.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="22.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="13.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="31.27"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="7" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2050,51 +2142,51 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>114</v>
+      <c r="B3" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="21.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>118</v>
+        <v>124</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2105,33 +2197,33 @@
       <c r="E4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="21.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>119</v>
+      <c r="B5" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>120</v>
+      <c r="D5" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>122</v>
+        <v>130</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
-      <c r="B6" s="5"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2139,15 +2231,15 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
-      <c r="B8" s="5"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2155,15 +2247,15 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2171,15 +2263,15 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
-      <c r="B11" s="5"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
-      <c r="B12" s="5"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2208,23 +2300,23 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="13.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="24.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="14.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="25.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="15.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="27.6"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="6" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="13.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="24.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="14.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="25.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="15.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="27.61"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="7" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2235,31 +2327,31 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>125</v>
+      <c r="A3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2268,18 +2360,18 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>127</v>
+      <c r="B4" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2290,65 +2382,65 @@
       <c r="E4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>129</v>
+      <c r="B5" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>132</v>
+        <v>140</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>133</v>
+      <c r="D6" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>137</v>
+        <v>143</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
-      <c r="B8" s="5"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2356,15 +2448,15 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2372,15 +2464,15 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
-      <c r="B11" s="5"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
-      <c r="B12" s="5"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2388,7 +2480,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
-      <c r="B13" s="5"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2396,7 +2488,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
-      <c r="B14" s="5"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2430,18 +2522,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="13.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="16.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="13.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="24.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="22.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="6" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="13.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="16.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="13.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="24.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="22.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="7" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2452,51 +2544,51 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+    <row r="3" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>139</v>
+      <c r="B3" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>140</v>
+      <c r="D3" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>142</v>
+        <v>150</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>143</v>
+      <c r="B4" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -2507,28 +2599,28 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>145</v>
+        <v>153</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>147</v>
+        <v>155</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>149</v>
+      <c r="A6" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -2539,7 +2631,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
-      <c r="B7" s="5"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2547,15 +2639,15 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
-      <c r="B9" s="5"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2563,15 +2655,15 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="5"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
-      <c r="B11" s="5"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2579,7 +2671,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
-      <c r="B12" s="5"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2587,7 +2679,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
-      <c r="B13" s="5"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>

--- a/src/main/resources/docs/database_dictionary.xlsx
+++ b/src/main/resources/docs/database_dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="1" state="visible" r:id="rId3"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="162">
   <si>
     <t xml:space="preserve">用户表 user</t>
   </si>
@@ -289,6 +289,9 @@
     <t xml:space="preserve">商品名称</t>
   </si>
   <si>
+    <t xml:space="preserve">sale</t>
+  </si>
+  <si>
     <t xml:space="preserve">商品状态（正常、下架）</t>
   </si>
   <si>
@@ -309,7 +312,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ONSALE</t>
+      <t xml:space="preserve">ON</t>
     </r>
     <r>
       <rPr>
@@ -328,7 +331,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">OFFSALE</t>
+      <t xml:space="preserve">OFF</t>
     </r>
     <r>
       <rPr>
@@ -339,6 +342,10 @@
       </rPr>
       <t xml:space="preserve">’)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT NULL;
+DEFAULT ‘OFF’;</t>
   </si>
   <si>
     <t xml:space="preserve">cover_url</t>
@@ -421,6 +428,58 @@
     <t xml:space="preserve">差评数量</t>
   </si>
   <si>
+    <t xml:space="preserve">商品状态（正常、删除）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="WenQuanYi Micro Hei Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ENUM(‘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="WenQuanYi Micro Hei Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ACTIVE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="WenQuanYi Micro Hei Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">’,’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="WenQuanYi Micro Hei Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">DELETED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="WenQuanYi Micro Hei Mono"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">’)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">地址表 address</t>
   </si>
   <si>
@@ -485,55 +544,6 @@
   </si>
   <si>
     <t xml:space="preserve">状态（正常，删除）</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="WenQuanYi Micro Hei Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ENUM(‘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="WenQuanYi Micro Hei Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ACTIVE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="WenQuanYi Micro Hei Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">’,’</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFC9211E"/>
-        <rFont val="WenQuanYi Micro Hei Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">DELETED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="WenQuanYi Micro Hei Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">’)</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">订单表 order</t>
@@ -898,12 +908,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA6A6"/>
+        <bgColor rgb="FFFFCC99"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -940,7 +956,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -973,7 +989,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1033,7 +1057,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFFA6A6"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
@@ -1170,8 +1194,8 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1351,8 +1375,8 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1399,7 +1423,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1419,7 +1443,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1450,31 +1474,31 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1482,13 +1506,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1496,10 +1520,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>20</v>
@@ -1510,105 +1534,113 @@
     </row>
     <row r="10" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>64</v>
+      <c r="A13" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>67</v>
+      <c r="A14" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>69</v>
+      <c r="A15" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+    <row r="16" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
@@ -1651,7 +1683,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1686,7 +1718,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>10</v>
@@ -1702,11 +1734,11 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>10</v>
@@ -1715,18 +1747,18 @@
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>76</v>
+      <c r="A5" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>10</v>
@@ -1735,18 +1767,18 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>80</v>
+      <c r="A6" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>10</v>
@@ -1755,18 +1787,18 @@
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>84</v>
+      <c r="A7" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>10</v>
@@ -1779,13 +1811,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>17</v>
@@ -1795,16 +1827,16 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1814,10 +1846,10 @@
         <v>29</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>32</v>
@@ -1855,8 +1887,8 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1872,7 +1904,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1907,7 +1939,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1916,18 +1948,18 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1936,18 +1968,18 @@
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>102</v>
+      <c r="A5" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -1963,10 +1995,10 @@
         <v>29</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>17</v>
@@ -1976,29 +2008,29 @@
     </row>
     <row r="7" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>17</v>
@@ -2008,13 +2040,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>17</v>
@@ -2024,13 +2056,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>17</v>
@@ -2040,26 +2072,26 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>35</v>
@@ -2131,7 +2163,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2162,11 +2194,11 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2175,18 +2207,18 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>126</v>
+      <c r="A4" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2203,22 +2235,22 @@
     </row>
     <row r="5" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2316,7 +2348,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2347,11 +2379,11 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>133</v>
+      <c r="A3" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2360,18 +2392,18 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>135</v>
+        <v>127</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>126</v>
+      <c r="A4" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2383,57 +2415,57 @@
         <v>38</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -2533,7 +2565,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2568,19 +2600,19 @@
         <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2588,7 +2620,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -2601,26 +2633,26 @@
     </row>
     <row r="5" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>157</v>
+      <c r="A6" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>

--- a/src/main/resources/docs/database_dictionary.xlsx
+++ b/src/main/resources/docs/database_dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="1" state="visible" r:id="rId3"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="162">
   <si>
     <t xml:space="preserve">用户表 user</t>
   </si>
@@ -525,6 +525,21 @@
     <t xml:space="preserve">区（县）编号</t>
   </si>
   <si>
+    <t xml:space="preserve">consignee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收货人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARCHAR（20）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收货人联系电话</t>
+  </si>
+  <si>
     <t xml:space="preserve">detail</t>
   </si>
   <si>
@@ -674,21 +689,6 @@
   <si>
     <t xml:space="preserve">NOT NULL;
 CHECK (payment&gt;=0);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consignee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">收货人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARCHAR（20）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">收货人联系电话</t>
   </si>
   <si>
     <t xml:space="preserve">address</t>
@@ -908,7 +908,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -919,6 +919,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFA6A6"/>
         <bgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF77BC65"/>
+        <bgColor rgb="FF99CC00"/>
       </patternFill>
     </fill>
   </fills>
@@ -956,7 +962,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -999,6 +1005,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1067,7 +1081,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF77BC65"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -1194,8 +1208,8 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1375,8 +1389,8 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A3:B3 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1474,7 +1488,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -1628,7 +1642,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -1664,10 +1678,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A3:B3 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1810,60 +1824,92 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>68</v>
+      <c r="C9" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>32</v>
+      <c r="C10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1888,7 +1934,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A3:B3 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1904,7 +1950,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1939,7 +1985,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -1948,18 +1994,18 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1968,18 +2014,18 @@
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -1995,10 +2041,10 @@
         <v>29</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>17</v>
@@ -2008,29 +2054,29 @@
     </row>
     <row r="7" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>17</v>
@@ -2040,13 +2086,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>17</v>
@@ -2147,7 +2193,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A3:B3 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2194,7 +2240,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -2209,12 +2255,12 @@
       <c r="E3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="14" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>129</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -2332,7 +2378,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="A3:B3 B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2379,7 +2425,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>136</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -2394,12 +2440,12 @@
       <c r="E3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="14" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>129</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -2549,7 +2595,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3:B3 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/main/resources/docs/database_dictionary.xlsx
+++ b/src/main/resources/docs/database_dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="用户" sheetId="1" state="visible" r:id="rId3"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="163">
   <si>
     <t xml:space="preserve">用户表 user</t>
   </si>
@@ -715,7 +715,10 @@
     <t xml:space="preserve">订单完成（签收）时间</t>
   </si>
   <si>
-    <t xml:space="preserve">购物表条目 trolly</t>
+    <t xml:space="preserve">订单封面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">购物表条目 trolley</t>
   </si>
   <si>
     <t xml:space="preserve">购物车所属用户编号</t>
@@ -838,7 +841,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -894,6 +897,18 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="WenQuanYi Micro Hei Mono"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="WenQuanYi Micro Hei Mono"/>
+      <family val="0"/>
+    </font>
+    <font>
       <i val="true"/>
       <u val="single"/>
       <sz val="8"/>
@@ -908,7 +923,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -924,7 +939,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF77BC65"/>
-        <bgColor rgb="FF99CC00"/>
+        <bgColor rgb="FF3FAF46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3FAF46"/>
+        <bgColor rgb="FF77BC65"/>
       </patternFill>
     </fill>
   </fills>
@@ -962,7 +983,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1015,11 +1036,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1083,7 +1112,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF77BC65"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF3FAF46"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FFC9211E"/>
@@ -1208,8 +1237,8 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1390,7 +1419,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A3:B3 A4"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1681,7 +1710,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A3:B3 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1933,8 +1962,8 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A3:B3 A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2147,9 +2176,15 @@
       <c r="F12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2193,7 +2228,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A3:B3 A4"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2209,7 +2244,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2240,11 +2275,11 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2253,18 +2288,18 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="14" t="s">
         <v>128</v>
       </c>
+      <c r="F3" s="16" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>129</v>
+      <c r="A4" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2284,19 +2319,19 @@
         <v>63</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2378,7 +2413,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="A3:B3 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2394,7 +2429,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2425,11 +2460,11 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
-        <v>136</v>
+      <c r="A3" s="15" t="s">
+        <v>137</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -2438,18 +2473,18 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>138</v>
+        <v>128</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>129</v>
+      <c r="A4" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -2461,7 +2496,7 @@
         <v>38</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2469,49 +2504,49 @@
         <v>63</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -2595,7 +2630,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A3:B3 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2611,7 +2646,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2646,19 +2681,19 @@
         <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2666,7 +2701,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
@@ -2679,26 +2714,26 @@
     </row>
     <row r="5" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>

--- a/src/main/resources/docs/database_dictionary.xlsx
+++ b/src/main/resources/docs/database_dictionary.xlsx
@@ -841,7 +841,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -902,11 +902,6 @@
       <name val="WenQuanYi Micro Hei Mono"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="WenQuanYi Micro Hei Mono"/>
-      <family val="0"/>
     </font>
     <font>
       <i val="true"/>
@@ -983,7 +978,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1045,10 +1040,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1963,7 +1954,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2009,7 +2000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2029,7 +2020,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="21.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
         <v>106</v>
       </c>
@@ -2182,7 +2173,7 @@
       <c r="B13" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="1"/>
@@ -2228,7 +2219,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2275,7 +2266,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -2290,12 +2281,12 @@
       <c r="E3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>130</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -2413,7 +2404,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2460,7 +2451,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>137</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -2475,12 +2466,12 @@
       <c r="E3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>130</v>
       </c>
       <c r="B4" s="6" t="s">
